--- a/englishOutputs/englishComparison_4.xlsx
+++ b/englishOutputs/englishComparison_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="122">
   <si>
     <t>Sentence</t>
   </si>
@@ -55,222 +55,228 @@
     <t>Ah...let me see.</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>I have a better chart than this one.</t>
+  </si>
+  <si>
+    <t>I hope.     (unintelligible comment)</t>
+  </si>
+  <si>
+    <t>It was in February I guess.</t>
+  </si>
+  <si>
+    <t>I don't know...</t>
+  </si>
+  <si>
+    <t>Was that the last time?</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>The last time I saw you was in, ah...</t>
+  </si>
+  <si>
     <t>c-l/s-p/s</t>
   </si>
   <si>
-    <t>I have a better chart than this one.</t>
+    <t>February.</t>
+  </si>
+  <si>
+    <t>Ah-huh.</t>
+  </si>
+  <si>
+    <t>How you feeling?</t>
+  </si>
+  <si>
+    <t>?p/s</t>
+  </si>
+  <si>
+    <t>[?]l/s</t>
+  </si>
+  <si>
+    <t>Fine.</t>
+  </si>
+  <si>
+    <t>gives-p/s</t>
+  </si>
+  <si>
+    <t>Fine?</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>Good.</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>(patient laughs)</t>
+  </si>
+  <si>
+    <t>laughs</t>
+  </si>
+  <si>
+    <t>And, ah...</t>
+  </si>
+  <si>
+    <t>And you're taking the diabetes pill one twice a day, is that right?</t>
+  </si>
+  <si>
+    <t>[?]thera</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>And the blood pressure pill...one twice a day.</t>
+  </si>
+  <si>
+    <t>Twice a day.</t>
+  </si>
+  <si>
+    <t>Ah-hmm.</t>
+  </si>
+  <si>
+    <t>Are your eyes still hazy?</t>
+  </si>
+  <si>
+    <t>A little.</t>
+  </si>
+  <si>
+    <t>Sometimes they're a little better, they're not as…</t>
   </si>
   <si>
     <t>r/o</t>
   </si>
   <si>
-    <t>I hope.     (unintelligible comment)</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>It was in February I guess.</t>
+    <t>But, most of the time they're a little bit hazy.</t>
+  </si>
+  <si>
+    <t>And your urine is, ah...negative all the time?</t>
+  </si>
+  <si>
+    <t>Yeah.</t>
+  </si>
+  <si>
+    <t>They have  been  negative all the time.</t>
+  </si>
+  <si>
+    <t>They've never been...never been high.</t>
+  </si>
+  <si>
+    <t>Right.</t>
+  </si>
+  <si>
+    <t>Let's see if I can find the results of the blood test we did last time in the chart.</t>
+  </si>
+  <si>
+    <t>c-med/thera</t>
+  </si>
+  <si>
+    <t>Oh, yeah.</t>
+  </si>
+  <si>
+    <t>It was still a little bit high there in February.</t>
+  </si>
+  <si>
+    <t>What...my pressure?</t>
+  </si>
+  <si>
+    <t>No the blood...sugar.</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>Sugar.</t>
+  </si>
+  <si>
+    <t>Oh I see.</t>
+  </si>
+  <si>
+    <t>Okay.</t>
+  </si>
+  <si>
+    <t>How about your, how about your...</t>
+  </si>
+  <si>
+    <t>hip pain?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>Yeah, i t's alright.</t>
+  </si>
+  <si>
+    <t>It's okay?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>It's fine.</t>
+  </si>
+  <si>
+    <t>I don't have any problem there.</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>So it sounds like things are good.</t>
+  </si>
+  <si>
+    <t>I feel good.</t>
+  </si>
+  <si>
+    <t>Is there anything that you have on your mind that I can help you with?</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t>No, I don't think so.</t>
+  </si>
+  <si>
+    <t>Because I been feeling good.</t>
+  </si>
+  <si>
+    <t>As I say I still have to get my,</t>
+  </si>
+  <si>
+    <t>Oh you do.</t>
+  </si>
+  <si>
+    <t>And that would be a good plan.</t>
+  </si>
+  <si>
+    <t>Let's see...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah. </t>
+  </si>
+  <si>
+    <t>(laughs)</t>
+  </si>
+  <si>
+    <t>161 was last time.</t>
+  </si>
+  <si>
+    <t>And today is 164.</t>
   </si>
   <si>
     <t>gives-l/s</t>
   </si>
   <si>
-    <t>I don't know...</t>
-  </si>
-  <si>
-    <t>Was that the last time?</t>
-  </si>
-  <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>The last time I saw you was in, ah...</t>
-  </si>
-  <si>
-    <t>February.</t>
-  </si>
-  <si>
-    <t>Ah-huh.</t>
-  </si>
-  <si>
-    <t>How you feeling?</t>
-  </si>
-  <si>
-    <t>?p/s</t>
-  </si>
-  <si>
-    <t>Fine.</t>
-  </si>
-  <si>
-    <t>gives-p/s</t>
-  </si>
-  <si>
-    <t>Fine?</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>Good.</t>
-  </si>
-  <si>
-    <t>approve</t>
-  </si>
-  <si>
-    <t>(patient laughs)</t>
-  </si>
-  <si>
-    <t>laughs</t>
-  </si>
-  <si>
-    <t>And, ah...</t>
-  </si>
-  <si>
-    <t>And you're taking the diabetes pill one twice a day, is that right?</t>
-  </si>
-  <si>
-    <t>[?]thera</t>
-  </si>
-  <si>
-    <t>And the blood pressure pill...one twice a day.</t>
-  </si>
-  <si>
-    <t>Twice a day.</t>
-  </si>
-  <si>
-    <t>Ah-hmm.</t>
-  </si>
-  <si>
-    <t>Are your eyes still hazy?</t>
-  </si>
-  <si>
-    <t>A little.</t>
-  </si>
-  <si>
-    <t>Sometimes they're a little better, they're not as…</t>
-  </si>
-  <si>
-    <t>But, most of the time they're a little bit hazy.</t>
-  </si>
-  <si>
-    <t>And your urine is, ah...negative all the time?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>They have  been  negative all the time.</t>
-  </si>
-  <si>
-    <t>They've never been...never been high.</t>
-  </si>
-  <si>
-    <t>Right.</t>
-  </si>
-  <si>
-    <t>Let's see if I can find the results of the blood test we did last time in the chart.</t>
-  </si>
-  <si>
-    <t>Oh, yeah.</t>
-  </si>
-  <si>
-    <t>It was still a little bit high there in February.</t>
-  </si>
-  <si>
-    <t>What...my pressure?</t>
-  </si>
-  <si>
-    <t>No the blood...sugar.</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>Sugar.</t>
-  </si>
-  <si>
-    <t>Oh I see.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>How about your, how about your...</t>
-  </si>
-  <si>
-    <t>hip pain?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>Yeah, i t's alright.</t>
-  </si>
-  <si>
-    <t>It's okay?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>It's fine.</t>
-  </si>
-  <si>
-    <t>I don't have any problem there.</t>
-  </si>
-  <si>
-    <t>Wow!</t>
-  </si>
-  <si>
-    <t>So it sounds like things are good.</t>
-  </si>
-  <si>
-    <t>I feel good.</t>
-  </si>
-  <si>
-    <t>Is there anything that you have on your mind that I can help you with?</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>No, I don't think so.</t>
-  </si>
-  <si>
-    <t>Because I been feeling good.</t>
-  </si>
-  <si>
-    <t>As I say I still have to get my,</t>
-  </si>
-  <si>
-    <t>Oh you do.</t>
-  </si>
-  <si>
-    <t>And that would be a good plan.</t>
-  </si>
-  <si>
-    <t>Let's see...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeah. </t>
-  </si>
-  <si>
-    <t>(laughs)</t>
-  </si>
-  <si>
-    <t>161 was last time.</t>
-  </si>
-  <si>
-    <t>And today is 164.</t>
-  </si>
-  <si>
     <t>That's not good.</t>
   </si>
   <si>
@@ -314,9 +320,6 @@
   </si>
   <si>
     <t>Do you have someone in your household with you there or are you by yourself?</t>
-  </si>
-  <si>
-    <t>[?]l/s</t>
   </si>
   <si>
     <t>No, I live alone.</t>
@@ -788,34 +791,34 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -826,18 +829,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -848,18 +851,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -881,40 +884,40 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -925,29 +928,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -958,21 +961,21 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -980,18 +983,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1013,7 +1016,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1024,7 +1027,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1035,13 +1038,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1079,7 +1082,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -1093,10 +1096,10 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1112,7 +1115,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1126,10 +1129,10 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1162,12 +1165,12 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1189,7 +1192,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -1200,51 +1203,51 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1299,35 +1302,35 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1343,7 +1346,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1354,10 +1357,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -1365,18 +1368,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1387,13 +1390,13 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1409,10 +1412,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -1420,21 +1423,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -1442,10 +1445,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -1453,18 +1456,18 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1475,18 +1478,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -1497,46 +1500,46 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1552,10 +1555,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -1563,40 +1566,40 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1607,10 +1610,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -1618,21 +1621,21 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -1640,10 +1643,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
@@ -1654,7 +1657,7 @@
         <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1673,32 +1676,32 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -1706,10 +1709,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -1717,10 +1720,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -1728,10 +1731,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -1739,10 +1742,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -1750,10 +1753,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -1761,32 +1764,32 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -1794,10 +1797,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -1805,10 +1808,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -1816,13 +1819,13 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1849,32 +1852,32 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -1882,21 +1885,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -1904,10 +1907,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -1915,29 +1918,29 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -1959,10 +1962,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -1970,10 +1973,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -1981,10 +1984,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -1992,24 +1995,24 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
